--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\vinoth\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8636AB5-A843-4C69-BC83-1DF4E8755FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49605021-41F6-4C9D-9FAD-D5FB91E8104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +26,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>https://www.youtube.com/shorts/UE6J-XG6I4M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/ek8AJzvMuk0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/BCz2tp8AI0c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>urls</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/7bkcWfQc1pE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/l4bOvZUpsgM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/itv99qWygVI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/M1hRRw0JhiE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/rBYFrwBCqxM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/lg91cJ2YhgY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/K8R1NAvEE0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/tz7gZl-H5gk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/nGbr_6edeKA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/hO0udCd5sBg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/g4y655T4qU8</t>
   </si>
 </sst>
 </file>
@@ -354,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -367,22 +392,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704F7061-FF2A-41F8-A527-CE90F26C8743}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\vinoth\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49605021-41F6-4C9D-9FAD-D5FB91E8104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5121E5A-CD6F-4B5F-BA93-1E946E520ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>urls</t>
   </si>
@@ -58,10 +58,37 @@
     <t>https://www.youtube.com/shorts/nGbr_6edeKA</t>
   </si>
   <si>
-    <t>https://www.youtube.com/shorts/hO0udCd5sBg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/shorts/g4y655T4qU8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/WOolqWt-r2s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/FEqf6Cz2ExI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/6pRNg7Z-4QU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/g82sFwJXOWg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/YB9X2SuGORk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/En6lhg53DTA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/UUJbex0-vqQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/HL6m36lx0FQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/Wy75A27kAqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/Ivw2Z_92XuM</t>
   </si>
 </sst>
 </file>
@@ -379,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,6 +427,51 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -410,10 +482,13 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -437,32 +512,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
